--- a/data/trans_bre/P22_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,33</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,5</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>16,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>38,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>49,37%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>45,11%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>157,83%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 26,98</t>
+          <t>-7,74; 33,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 25,52</t>
+          <t>-8,46; 32,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 22,56</t>
+          <t>-8,64; 44,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 149,17</t>
+          <t>15,96; 62,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 140,13</t>
+          <t>-15,9; 142,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 87,6</t>
+          <t>-24,85; 218,15</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-16,93; 267,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36,97; 692,71</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32,35%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 15,36</t>
+          <t>-9,42; 16,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 16,78</t>
+          <t>-8,53; 16,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 18,77</t>
+          <t>-2,48; 23,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 48,34</t>
+          <t>-10,83; 14,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 57,48</t>
+          <t>-20,82; 49,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 66,48</t>
+          <t>-18,73; 53,78</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 83,56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-22,85; 50,61</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>21,73%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,06%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 20,46</t>
+          <t>-6,83; 18,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 21,75</t>
+          <t>-5,19; 19,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 15,56</t>
+          <t>-9,71; 14,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 69,3</t>
+          <t>-14,94; 10,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 73,32</t>
+          <t>-14,93; 62,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 45,04</t>
+          <t>-12,06; 66,43</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-19,97; 40,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-30,56; 29,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 14,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 16,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 14,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 49,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 54,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 45,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,84</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,33</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,97</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,44</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23,68%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 13,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 14,54</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 16,94</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 16,53</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 43,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 46,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 51,78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 56,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P22_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,99</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,11</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>38,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>37,75%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>49,37%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>45,11%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>157,83%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>16.44930158687964</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.45101752384986</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>16.86214673128395</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>38.8655366252633</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.5183047046945648</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.5524701465833577</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4669995712459719</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.611915626448464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,74; 33,88</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; 32,91</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,64; 44,15</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>15,96; 62,31</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-15,9; 142,95</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-24,85; 218,15</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-16,93; 267,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>36,97; 692,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.542473723958569</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.396059589859089</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.886404987855178</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>16.7093824460639</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1052281668321597</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2041865257235016</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1556897662109167</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.3812753196073523</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>37.39473141220888</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>33.00779086195414</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>44.31727830958894</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>63.39147557873898</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.857799274266886</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.214639427885854</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.508650421332673</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>6.942674504508958</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,14</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,42</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,21</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,73%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>13,53%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>32,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>11,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,42; 16,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 16,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 23,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 14,67</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-20,82; 49,04</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-18,73; 53,78</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 83,56</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-22,85; 50,61</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.106905242957639</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.762517615838635</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.13725625612884</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.747537559613817</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1524993125535941</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1227826667766879</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3151653836708682</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1028859393281548</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,31</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16,8%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>21,73%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,24%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,06%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.294770638007838</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.279807829584113</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.460239997102274</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.15115100386936</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1619101980536888</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1599780302911544</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.06230556923180085</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2388945916612854</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 18,78</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,19; 19,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,71; 14,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,94; 10,06</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-14,93; 62,71</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-12,06; 66,43</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-19,97; 40,63</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-30,56; 29,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.96522297444867</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.07598136014415</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>22.56719522388983</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.4086538104746</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5748180741409495</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5146773114646693</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7929092850214888</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4974690858452859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.555590676760143</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.804187403705065</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.767729745356417</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.287646150783128</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1762915770612863</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1805890856124076</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.04148978850012008</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.03224617352609162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.912521737933393</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.764030828167569</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.19149417756212</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-14.77578474070129</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1488494558458008</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1493119379772464</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2261045564338746</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3085786383429505</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.0106902868362</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.79789907461936</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.81417238589858</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.00304933859169</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.7122274127379251</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.5744607546489346</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3807932663098985</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2995253105152657</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,33</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,44</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,96%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20,45%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>23,68%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>23,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 13,82</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 14,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 16,94</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 16,53</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 43,18</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 46,52</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 51,78</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 56,88</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>7.477737961936199</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.791031454092811</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.695465557381516</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.322080002145494</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1969488058375994</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1849647840583296</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2289806628990509</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2339903785792537</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.9453975820685017</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.456364094945</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1286195488733034</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.9898883363470803</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.02308683189985756</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.03590249389003233</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.003790632711075764</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.02102489651964768</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.90023124659968</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>13.89059040548552</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>16.95466335935055</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>16.29293140375297</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.483465698090217</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4338364756539724</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5209386782875153</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5624148018342684</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
